--- a/DLS_Plots/022324_DLSZeta_serum_gradientcopoly_NP1,5,7.5,10_pDNA50to10 copy.xlsx
+++ b/DLS_Plots/022324_DLSZeta_serum_gradientcopoly_NP1,5,7.5,10_pDNA50to10 copy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aryellewright/Documents/Documents - Aryelle’s MacBook Air/Kumar-Biomaterials-Lab/DLS_Plots/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EC01989-1F42-164B-ACFC-8D848793EA07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D75119D9-22BE-E948-AE1F-8A06C5744B3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12460" activeTab="4" xr2:uid="{A79C2818-BA8F-4D9F-83BF-5E9D73C64859}"/>
+    <workbookView xWindow="0" yWindow="660" windowWidth="10000" windowHeight="15180" activeTab="4" xr2:uid="{A79C2818-BA8F-4D9F-83BF-5E9D73C64859}"/>
   </bookViews>
   <sheets>
     <sheet name="NP 1" sheetId="1" r:id="rId1"/>
@@ -466,7 +466,7 @@
   <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F15"/>
+      <selection activeCell="E2" sqref="E2:F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -843,7 +843,7 @@
   <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:L15"/>
+      <selection activeCell="E2" sqref="E2:F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1220,7 +1220,7 @@
   <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:L15"/>
+      <selection activeCell="E2" sqref="E2:F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1597,7 +1597,7 @@
   <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:L15"/>
+      <selection activeCell="E2" sqref="E2:F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1974,7 +1974,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B21"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2000,6 +2000,14 @@
       <c r="B2">
         <v>1</v>
       </c>
+      <c r="C2">
+        <f>320.9833333/2</f>
+        <v>160.49166665000001</v>
+      </c>
+      <c r="D2">
+        <f>6.215627259/2</f>
+        <v>3.1078136294999998</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -2008,6 +2016,14 @@
       <c r="B3">
         <v>5</v>
       </c>
+      <c r="C3">
+        <f>1884.273333/2</f>
+        <v>942.13666650000005</v>
+      </c>
+      <c r="D3">
+        <f>96.52826402/2</f>
+        <v>48.264132009999997</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -2016,6 +2032,14 @@
       <c r="B4">
         <v>7.5</v>
       </c>
+      <c r="C4">
+        <f>2148.563333/2</f>
+        <v>1074.2816665</v>
+      </c>
+      <c r="D4">
+        <f>120.6150964/2</f>
+        <v>60.307548199999999</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -2024,6 +2048,14 @@
       <c r="B5">
         <v>10</v>
       </c>
+      <c r="C5">
+        <f>2925.98/2</f>
+        <v>1462.99</v>
+      </c>
+      <c r="D5">
+        <f>234.850421/2</f>
+        <v>117.42521050000001</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -2032,6 +2064,14 @@
       <c r="B6">
         <v>1</v>
       </c>
+      <c r="C6">
+        <f>421.66/2</f>
+        <v>210.83</v>
+      </c>
+      <c r="D6">
+        <f>3.894414804/2</f>
+        <v>1.9472074020000001</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -2040,6 +2080,14 @@
       <c r="B7">
         <v>5</v>
       </c>
+      <c r="C7">
+        <f>319.2433333/2</f>
+        <v>159.62166665000001</v>
+      </c>
+      <c r="D7">
+        <f>3.963721596/2</f>
+        <v>1.981860798</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -2048,6 +2096,14 @@
       <c r="B8">
         <v>7.5</v>
       </c>
+      <c r="C8">
+        <f>318.26/2</f>
+        <v>159.13</v>
+      </c>
+      <c r="D8">
+        <f>6.779473923/2</f>
+        <v>3.3897369615000001</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -2056,6 +2112,14 @@
       <c r="B9">
         <v>10</v>
       </c>
+      <c r="C9">
+        <f>329.7433333/2</f>
+        <v>164.87166665000001</v>
+      </c>
+      <c r="D9">
+        <f>2.166492301/2</f>
+        <v>1.0832461504999999</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -2064,6 +2128,14 @@
       <c r="B10">
         <v>1</v>
       </c>
+      <c r="C10">
+        <f>331.4433333/2</f>
+        <v>165.72166665</v>
+      </c>
+      <c r="D10">
+        <f>2.879517707/2</f>
+        <v>1.4397588535000001</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -2072,6 +2144,14 @@
       <c r="B11">
         <v>5</v>
       </c>
+      <c r="C11">
+        <f>309.4333333/2</f>
+        <v>154.71666665000001</v>
+      </c>
+      <c r="D11">
+        <f>3.610820159/2</f>
+        <v>1.8054100795000001</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -2080,6 +2160,14 @@
       <c r="B12">
         <v>7.5</v>
       </c>
+      <c r="C12">
+        <f>920.4/2</f>
+        <v>460.2</v>
+      </c>
+      <c r="D12">
+        <f>13.23124333/2</f>
+        <v>6.6156216649999999</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -2088,6 +2176,14 @@
       <c r="B13">
         <v>10</v>
       </c>
+      <c r="C13">
+        <f>2821.016667/2</f>
+        <v>1410.5083334999999</v>
+      </c>
+      <c r="D13">
+        <f>241.5563821/2</f>
+        <v>120.77819105</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
@@ -2096,6 +2192,14 @@
       <c r="B14">
         <v>1</v>
       </c>
+      <c r="C14">
+        <f>346.4866667/2</f>
+        <v>173.24333335</v>
+      </c>
+      <c r="D14">
+        <f>0.900382635/2</f>
+        <v>0.45019131750000002</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -2104,6 +2208,14 @@
       <c r="B15">
         <v>5</v>
       </c>
+      <c r="C15">
+        <f>503.09/2</f>
+        <v>251.54499999999999</v>
+      </c>
+      <c r="D15">
+        <f>15.7122012/2</f>
+        <v>7.8561006000000004</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
@@ -2112,45 +2224,93 @@
       <c r="B16">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C16">
+        <f>847.9166667/2</f>
+        <v>423.95833334999998</v>
+      </c>
+      <c r="D16">
+        <f>4.811308438/2</f>
+        <v>2.4056542190000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>5</v>
       </c>
       <c r="B17">
         <v>10</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C17">
+        <f>2898.29/2</f>
+        <v>1449.145</v>
+      </c>
+      <c r="D17">
+        <f>309.3977851/2</f>
+        <v>154.69889255000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>6</v>
       </c>
       <c r="B18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C18">
+        <f>299.3466667/2</f>
+        <v>149.67333335000001</v>
+      </c>
+      <c r="D18">
+        <f>6.88681026/2</f>
+        <v>3.4434051299999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>6</v>
       </c>
       <c r="B19">
         <v>5</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C19">
+        <f>2120.57/2</f>
+        <v>1060.2850000000001</v>
+      </c>
+      <c r="D19">
+        <f>35.11840068/2</f>
+        <v>17.55920034</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>6</v>
       </c>
       <c r="B20">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C20">
+        <f>3460.896667/2</f>
+        <v>1730.4483335</v>
+      </c>
+      <c r="D20">
+        <f>228.2342189/2</f>
+        <v>114.11710945</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>6</v>
       </c>
       <c r="B21">
         <v>10</v>
+      </c>
+      <c r="C21">
+        <f>3474.286667/2</f>
+        <v>1737.1433334999999</v>
+      </c>
+      <c r="D21">
+        <f>413.8800201/2</f>
+        <v>206.94001005000001</v>
       </c>
     </row>
   </sheetData>

--- a/DLS_Plots/022324_DLSZeta_serum_gradientcopoly_NP1,5,7.5,10_pDNA50to10 copy.xlsx
+++ b/DLS_Plots/022324_DLSZeta_serum_gradientcopoly_NP1,5,7.5,10_pDNA50to10 copy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aryellewright/Documents/Documents - Aryelle’s MacBook Air/Kumar-Biomaterials-Lab/DLS_Plots/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D75119D9-22BE-E948-AE1F-8A06C5744B3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E841951-1A46-B34D-9BE1-A4E54494B095}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="660" windowWidth="10000" windowHeight="15180" activeTab="4" xr2:uid="{A79C2818-BA8F-4D9F-83BF-5E9D73C64859}"/>
+    <workbookView xWindow="7740" yWindow="740" windowWidth="10000" windowHeight="15180" firstSheet="1" activeTab="4" xr2:uid="{A79C2818-BA8F-4D9F-83BF-5E9D73C64859}"/>
   </bookViews>
   <sheets>
     <sheet name="NP 1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="15">
   <si>
     <t>Name</t>
   </si>
@@ -82,6 +82,9 @@
   </si>
   <si>
     <t>Stddev</t>
+  </si>
+  <si>
+    <t>pDNA</t>
   </si>
 </sst>
 </file>
@@ -1594,10 +1597,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DAEB23B-3CCE-4304-B9BD-64EAA1B3DC0B}">
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:F15"/>
+      <selection activeCell="G27" sqref="G27:H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1964,6 +1967,25 @@
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
     </row>
+    <row r="27" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D27">
+        <v>252.77</v>
+      </c>
+      <c r="E27">
+        <v>266.12</v>
+      </c>
+      <c r="F27">
+        <v>290.02</v>
+      </c>
+      <c r="G27">
+        <f>AVERAGE(D27:F27)</f>
+        <v>269.63666666666666</v>
+      </c>
+      <c r="H27">
+        <f>STDEV(D27:F27)</f>
+        <v>18.872356327002009</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1971,10 +1993,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42ACF3E1-1AEE-9744-959A-90370B0EB327}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1995,18 +2017,18 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <f>320.9833333/2</f>
-        <v>160.49166665000001</v>
+        <f>269.636666666667/2</f>
+        <v>134.8183333333335</v>
       </c>
       <c r="D2">
-        <f>6.215627259/2</f>
-        <v>3.1078136294999998</v>
+        <f>18.872356327002/2</f>
+        <v>9.4361781635009994</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2014,15 +2036,15 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <f>1884.273333/2</f>
-        <v>942.13666650000005</v>
+        <f>320.9833333/2</f>
+        <v>160.49166665000001</v>
       </c>
       <c r="D3">
-        <f>96.52826402/2</f>
-        <v>48.264132009999997</v>
+        <f>6.215627259/2</f>
+        <v>3.1078136294999998</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -2030,15 +2052,15 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>7.5</v>
+        <v>5</v>
       </c>
       <c r="C4">
-        <f>2148.563333/2</f>
-        <v>1074.2816665</v>
+        <f>1884.273333/2</f>
+        <v>942.13666650000005</v>
       </c>
       <c r="D4">
-        <f>120.6150964/2</f>
-        <v>60.307548199999999</v>
+        <f>96.52826402/2</f>
+        <v>48.264132009999997</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -2046,31 +2068,31 @@
         <v>2</v>
       </c>
       <c r="B5">
+        <v>7.5</v>
+      </c>
+      <c r="C5">
+        <f>2148.563333/2</f>
+        <v>1074.2816665</v>
+      </c>
+      <c r="D5">
+        <f>120.6150964/2</f>
+        <v>60.307548199999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6">
         <v>10</v>
       </c>
-      <c r="C5">
+      <c r="C6">
         <f>2925.98/2</f>
         <v>1462.99</v>
       </c>
-      <c r="D5">
+      <c r="D6">
         <f>234.850421/2</f>
         <v>117.42521050000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <f>421.66/2</f>
-        <v>210.83</v>
-      </c>
-      <c r="D6">
-        <f>3.894414804/2</f>
-        <v>1.9472074020000001</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -2078,15 +2100,15 @@
         <v>3</v>
       </c>
       <c r="B7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C7">
-        <f>319.2433333/2</f>
-        <v>159.62166665000001</v>
+        <f>421.66/2</f>
+        <v>210.83</v>
       </c>
       <c r="D7">
-        <f>3.963721596/2</f>
-        <v>1.981860798</v>
+        <f>3.894414804/2</f>
+        <v>1.9472074020000001</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -2094,15 +2116,15 @@
         <v>3</v>
       </c>
       <c r="B8">
-        <v>7.5</v>
+        <v>5</v>
       </c>
       <c r="C8">
-        <f>318.26/2</f>
-        <v>159.13</v>
+        <f>319.2433333/2</f>
+        <v>159.62166665000001</v>
       </c>
       <c r="D8">
-        <f>6.779473923/2</f>
-        <v>3.3897369615000001</v>
+        <f>3.963721596/2</f>
+        <v>1.981860798</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -2110,31 +2132,31 @@
         <v>3</v>
       </c>
       <c r="B9">
+        <v>7.5</v>
+      </c>
+      <c r="C9">
+        <f>318.26/2</f>
+        <v>159.13</v>
+      </c>
+      <c r="D9">
+        <f>6.779473923/2</f>
+        <v>3.3897369615000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10">
         <v>10</v>
       </c>
-      <c r="C9">
+      <c r="C10">
         <f>329.7433333/2</f>
         <v>164.87166665000001</v>
       </c>
-      <c r="D9">
+      <c r="D10">
         <f>2.166492301/2</f>
         <v>1.0832461504999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <f>331.4433333/2</f>
-        <v>165.72166665</v>
-      </c>
-      <c r="D10">
-        <f>2.879517707/2</f>
-        <v>1.4397588535000001</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -2142,15 +2164,15 @@
         <v>4</v>
       </c>
       <c r="B11">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C11">
-        <f>309.4333333/2</f>
-        <v>154.71666665000001</v>
+        <f>331.4433333/2</f>
+        <v>165.72166665</v>
       </c>
       <c r="D11">
-        <f>3.610820159/2</f>
-        <v>1.8054100795000001</v>
+        <f>2.879517707/2</f>
+        <v>1.4397588535000001</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -2158,15 +2180,15 @@
         <v>4</v>
       </c>
       <c r="B12">
-        <v>7.5</v>
+        <v>5</v>
       </c>
       <c r="C12">
-        <f>920.4/2</f>
-        <v>460.2</v>
+        <f>309.4333333/2</f>
+        <v>154.71666665000001</v>
       </c>
       <c r="D12">
-        <f>13.23124333/2</f>
-        <v>6.6156216649999999</v>
+        <f>3.610820159/2</f>
+        <v>1.8054100795000001</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -2174,31 +2196,31 @@
         <v>4</v>
       </c>
       <c r="B13">
+        <v>7.5</v>
+      </c>
+      <c r="C13">
+        <f>920.4/2</f>
+        <v>460.2</v>
+      </c>
+      <c r="D13">
+        <f>13.23124333/2</f>
+        <v>6.6156216649999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14">
         <v>10</v>
       </c>
-      <c r="C13">
+      <c r="C14">
         <f>2821.016667/2</f>
         <v>1410.5083334999999</v>
       </c>
-      <c r="D13">
+      <c r="D14">
         <f>241.5563821/2</f>
         <v>120.77819105</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14">
-        <f>346.4866667/2</f>
-        <v>173.24333335</v>
-      </c>
-      <c r="D14">
-        <f>0.900382635/2</f>
-        <v>0.45019131750000002</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -2206,15 +2228,15 @@
         <v>5</v>
       </c>
       <c r="B15">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C15">
-        <f>503.09/2</f>
-        <v>251.54499999999999</v>
+        <f>346.4866667/2</f>
+        <v>173.24333335</v>
       </c>
       <c r="D15">
-        <f>15.7122012/2</f>
-        <v>7.8561006000000004</v>
+        <f>0.900382635/2</f>
+        <v>0.45019131750000002</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -2222,15 +2244,15 @@
         <v>5</v>
       </c>
       <c r="B16">
-        <v>7.5</v>
+        <v>5</v>
       </c>
       <c r="C16">
-        <f>847.9166667/2</f>
-        <v>423.95833334999998</v>
+        <f>503.09/2</f>
+        <v>251.54499999999999</v>
       </c>
       <c r="D16">
-        <f>4.811308438/2</f>
-        <v>2.4056542190000001</v>
+        <f>15.7122012/2</f>
+        <v>7.8561006000000004</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -2238,31 +2260,31 @@
         <v>5</v>
       </c>
       <c r="B17">
+        <v>7.5</v>
+      </c>
+      <c r="C17">
+        <f>847.9166667/2</f>
+        <v>423.95833334999998</v>
+      </c>
+      <c r="D17">
+        <f>4.811308438/2</f>
+        <v>2.4056542190000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18">
         <v>10</v>
       </c>
-      <c r="C17">
+      <c r="C18">
         <f>2898.29/2</f>
         <v>1449.145</v>
       </c>
-      <c r="D17">
+      <c r="D18">
         <f>309.3977851/2</f>
         <v>154.69889255000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>6</v>
-      </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18">
-        <f>299.3466667/2</f>
-        <v>149.67333335000001</v>
-      </c>
-      <c r="D18">
-        <f>6.88681026/2</f>
-        <v>3.4434051299999999</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -2270,15 +2292,15 @@
         <v>6</v>
       </c>
       <c r="B19">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C19">
-        <f>2120.57/2</f>
-        <v>1060.2850000000001</v>
+        <f>299.3466667/2</f>
+        <v>149.67333335000001</v>
       </c>
       <c r="D19">
-        <f>35.11840068/2</f>
-        <v>17.55920034</v>
+        <f>6.88681026/2</f>
+        <v>3.4434051299999999</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -2286,15 +2308,15 @@
         <v>6</v>
       </c>
       <c r="B20">
-        <v>7.5</v>
+        <v>5</v>
       </c>
       <c r="C20">
-        <f>3460.896667/2</f>
-        <v>1730.4483335</v>
+        <f>2120.57/2</f>
+        <v>1060.2850000000001</v>
       </c>
       <c r="D20">
-        <f>228.2342189/2</f>
-        <v>114.11710945</v>
+        <f>35.11840068/2</f>
+        <v>17.55920034</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -2302,13 +2324,29 @@
         <v>6</v>
       </c>
       <c r="B21">
+        <v>7.5</v>
+      </c>
+      <c r="C21">
+        <f>3460.896667/2</f>
+        <v>1730.4483335</v>
+      </c>
+      <c r="D21">
+        <f>228.2342189/2</f>
+        <v>114.11710945</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22">
         <v>10</v>
       </c>
-      <c r="C21">
+      <c r="C22">
         <f>3474.286667/2</f>
         <v>1737.1433334999999</v>
       </c>
-      <c r="D21">
+      <c r="D22">
         <f>413.8800201/2</f>
         <v>206.94001005000001</v>
       </c>
